--- a/biology/Botanique/Calamagrostis_epigeios/Calamagrostis_epigeios.xlsx
+++ b/biology/Botanique/Calamagrostis_epigeios/Calamagrostis_epigeios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calamagrostis epigejos, le Calamagrostis commun ou Roseau des bois est une espèce de plantes herbacées de la famille des Poaceae, sous-famille des Pooideae, tribu des Aveneae.
 Elle est aussi appelée « roseau terrestre » ou « roseau des collines ».
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce de plantes vivaces à rhizome traçant, de 0,7 à 1,2 m de hauteur.
 Elle est marcescente (c'est-à-dire qu'elle conserve la majeure partie de sa biomasse morte sur la plante morte qui reste debout en hiver), ce qui semble exposer les tissus mort à la photodégradation en hiver, qui faciliterait ensuite la décomposition ultérieure dans la litière du sol.
@@ -546,7 +560,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme son nom « roseau des bois » le sous-entend, c'est une herbacée des clairières de forêts et bois et des pâturages humides.
 </t>
@@ -577,7 +593,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve en terrains neutrophiles ou siliceux en Eurasie et jusqu'en Afrique.
 Elle peut être également cultivée ailleurs ou y avoir été introduite accidentellement ou volontairement.
